--- a/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\새 폴더\파이썬\코딩교실 매크로\1.코딩교실준비\3.전산반배정\3.LMS줌링크\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\5.LMS줌링크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A5A8D9-D5E3-481A-B654-DCBBFD3CD431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0FDAC3-8E18-49C7-A04F-06EF709A8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33585" yWindow="4425" windowWidth="27735" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32010" yWindow="1470" windowWidth="29055" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>admin ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,235 +62,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PH_TT_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_MW_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_MW_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_TT_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PH_MW_03</t>
-  </si>
-  <si>
-    <t>PH_MW_04</t>
-  </si>
-  <si>
-    <t>PH_MW_05</t>
-  </si>
-  <si>
-    <t>PH_MW_06</t>
-  </si>
-  <si>
-    <t>PH_MW_07</t>
-  </si>
-  <si>
-    <t>PH_MW_08</t>
-  </si>
-  <si>
-    <t>PH_MW_09</t>
-  </si>
-  <si>
-    <t>PH_MW_10</t>
-  </si>
-  <si>
-    <t>PH_MW_11</t>
-  </si>
-  <si>
-    <t>PH_MW_12</t>
-  </si>
-  <si>
-    <t>PH_MW_13</t>
-  </si>
-  <si>
-    <t>PH_MW_14</t>
-  </si>
-  <si>
-    <t>PH_MW_15</t>
-  </si>
-  <si>
-    <t>PH_MW_16</t>
-  </si>
-  <si>
-    <t>PH_MW_17</t>
-  </si>
-  <si>
-    <t>PH_MW_18</t>
-  </si>
-  <si>
-    <t>PH_MW_19</t>
-  </si>
-  <si>
-    <t>PH_MW_20</t>
-  </si>
-  <si>
-    <t>PH_MW_21</t>
-  </si>
-  <si>
-    <t>PH_MW_22</t>
-  </si>
-  <si>
-    <t>PH_MW_23</t>
-  </si>
-  <si>
-    <t>PH_MW_24</t>
-  </si>
-  <si>
-    <t>PH_MW_25</t>
-  </si>
-  <si>
-    <t>PH_TT_03</t>
-  </si>
-  <si>
-    <t>PH_TT_04</t>
-  </si>
-  <si>
-    <t>PH_TT_05</t>
-  </si>
-  <si>
-    <t>PH_TT_06</t>
-  </si>
-  <si>
-    <t>PH_TT_07</t>
-  </si>
-  <si>
-    <t>PH_TT_08</t>
-  </si>
-  <si>
-    <t>PH_TT_09</t>
-  </si>
-  <si>
-    <t>PH_TT_10</t>
-  </si>
-  <si>
-    <t>PH_TT_11</t>
-  </si>
-  <si>
-    <t>PH_TT_12</t>
-  </si>
-  <si>
-    <t>PH_TT_13</t>
-  </si>
-  <si>
-    <t>PH_TT_14</t>
-  </si>
-  <si>
-    <t>PH_TT_15</t>
-  </si>
-  <si>
-    <t>PH_TT_16</t>
-  </si>
-  <si>
-    <t>PH_TT_17</t>
-  </si>
-  <si>
-    <t>PH_TT_18</t>
-  </si>
-  <si>
-    <t>PH_TT_19</t>
-  </si>
-  <si>
-    <t>PH_TT_20</t>
-  </si>
-  <si>
-    <t>PH_TT_21</t>
-  </si>
-  <si>
     <t>링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://us02web.zoom.us/j/83131307355?pwd=0pNWEdD7elIbvZ6eT3ZbmF8u9zzvYB.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/89014767358?pwd=NXTBFRSnQqklJNDmAj7WBteHmpWZM1.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83867548879?pwd=3DW6J6YE7fwgcnUUxFCIdLaRRvtQUG.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83391083738?pwd=97bbwvPoyieBzE15sXcheeupegNGbb.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82732136520?pwd=XAiyL2TNrS7tz9Pw2ibPP0EjL3INca.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87177145881?pwd=FC5vFJ9go3lLiIAgBYzIlLilJmecVj.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/85877631904?pwd=Ze5ySJdFmCEI2bgXnkbILYp8fw9Da3.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84124277986?pwd=2rhsZPSPSROyHGbvbr860iavKqFdYb.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86056676175?pwd=XmU079xqDJWCRVOXOXQ70pO4tlaZCX.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82887556257?pwd=Pokfbv81agXXB6VUBf8ZDW07BNI485.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86123530739?pwd=AtXCm3KLQxR3gArn1g84vUMhAcWiwh.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/81473114416?pwd=pY33vbBdYPWSJRUeJFmtFbQyYyQMMG.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/88531145057?pwd=lTbs9XzgkhYEPbabQXuEyzIQa4u1JJ.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/85666291005?pwd=ruwX5kV0CvvMQNCHVcTOzOQlgaHp4d.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83246181553?pwd=6n2a1yfueCz81z9rb2OEVFuDg0mCYT.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84301888774?pwd=LLWZ73D7qn7GTIEjella0bq7FR2rLf.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/89547483499?pwd=2Dr5o4G3lEiAnW4vUop5MinELLDVyC.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87474687140?pwd=ujB7B5ET5HIAQKpLGKfRCtDjonWzBt.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83033020740?pwd=bgkcOfAPEWfyvKvglLgJdlhjTRqGd5.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87554367471?pwd=pFiUepWxjdUJMriX7aCuNwjPNDBPEn.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83847233665?pwd=AuwSKthxdekneAXCT0AbFt2ZpuQF4o.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86992635200?pwd=pxsQhdsBfooIvyopqJD4SQa8bk0BV0.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82566479043?pwd=loWkHhtS7CbdocYy7jfv0VvTgDecEY.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86763603096?pwd=9Lerx9CiRnD2yR1jb4EHVQZaM6dhbE.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/81772854980?pwd=0o0a2YKu9MlQE9MUiZ7Cpb39FSb2vt.1</t>
-  </si>
-  <si>
-    <t>https://enozsw.enoz.kr/Admin/Teacher/TeacherList.asp</t>
-  </si>
-  <si>
     <t>강사 관리 링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://enozsw.enoz.kr/admin/</t>
+    <t>GM_MW_01</t>
+  </si>
+  <si>
+    <t>GM_MW_02</t>
+  </si>
+  <si>
+    <t>GM_MW_03</t>
+  </si>
+  <si>
+    <t>GM_MW_04</t>
+  </si>
+  <si>
+    <t>GM_MW_05</t>
+  </si>
+  <si>
+    <t>GM_MW_06</t>
+  </si>
+  <si>
+    <t>GM_MW_07</t>
+  </si>
+  <si>
+    <t>GM_MW_08</t>
+  </si>
+  <si>
+    <t>GM_MW_09</t>
+  </si>
+  <si>
+    <t>GM_MW_10</t>
+  </si>
+  <si>
+    <t>GM_MW_11</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/5448448250?pwd=M3lSU0F2am9EUWc0WWZlMG9vdjNWQT09&amp;omn=84362952806</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86216732745?pwd=jHKOUsRdFBMYJJhmdXTWaFBZMiYpaU.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84326384406?pwd=PDsY83woY4zVfz7L33RttwE6OZpoDW.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87300748246?pwd=jRbuZpaPfVNpWHmiuArB5ix8Dl82Mb.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83028332977?pwd=P4sNZgq0oery7qdQZwFdgRCXScpFsd.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86196879304?pwd=seaVbxv9gLpFZy7Ro7kQFuN7OGGba9.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84024077408?pwd=fNZK5GIklhQymIb7XvUNg4JteP6qrR.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82952858931?pwd=Xqv0u7mG7tvaYh23Zw1UE2DVglqaw7.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82682113467?pwd=iqmB7rZ8Qjj1tFwLMYTs1uxp1t2uvq.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87969718408?pwd=8VPwoze6vf8gWymKip8ctKku0tUW2M.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84391366905?pwd=h2E83CCsJjKJJKaVjPPDGRxF98RRMd.1</t>
+  </si>
+  <si>
+    <t>GM_TT_01</t>
+  </si>
+  <si>
+    <t>GM_TT_02</t>
+  </si>
+  <si>
+    <t>GM_TT_03</t>
+  </si>
+  <si>
+    <t>GM_TT_04</t>
+  </si>
+  <si>
+    <t>GM_TT_05</t>
+  </si>
+  <si>
+    <t>GM_TT_06</t>
+  </si>
+  <si>
+    <t>GM_TT_07</t>
+  </si>
+  <si>
+    <t>GM_TT_08</t>
+  </si>
+  <si>
+    <t>GM_TT_09</t>
+  </si>
+  <si>
+    <t>GM_TT_10</t>
+  </si>
+  <si>
+    <t>GM_TT_11</t>
+  </si>
+  <si>
+    <t>GM_TT_12</t>
+  </si>
+  <si>
+    <t>GM_TT_13</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83626899255?pwd=RAUmHXmYsIUJ9shAsrPRIrQHb6SxRQ.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/88264916666?pwd=xGm6hcb5LYt4QzCcaexbONzOzQZasj.1</t>
+  </si>
+  <si>
+    <t>https://enozsw-gumi.enoz.kr/admin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://enozsw-gumi.enoz.kr/Admin/Teacher/TeacherList.asp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +239,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +390,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,17 +724,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" hidden="1" customWidth="1"/>
@@ -825,22 +756,22 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="L1" s="6"/>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>53</v>
+      <c r="A2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="9"/>
       <c r="F2" s="5"/>
@@ -854,11 +785,11 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>54</v>
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="F3" s="5"/>
@@ -872,29 +803,29 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>55</v>
+      <c r="B4" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="K4" s="5"/>
       <c r="P4" s="2" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>56</v>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="7"/>
       <c r="F5" s="5"/>
@@ -903,11 +834,11 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>57</v>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="F6" s="5"/>
@@ -916,11 +847,11 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7"/>
       <c r="F7" s="5"/>
@@ -928,11 +859,11 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>59</v>
+      <c r="B8" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="7"/>
       <c r="F8" s="5"/>
@@ -940,11 +871,11 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8"/>
       <c r="F9" s="5"/>
@@ -952,11 +883,11 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>61</v>
+      <c r="B10" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="7"/>
       <c r="F10" s="5"/>
@@ -964,11 +895,11 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7"/>
       <c r="F11" s="5"/>
@@ -976,11 +907,11 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>63</v>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="7"/>
       <c r="F12" s="5"/>
@@ -988,11 +919,11 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="7"/>
       <c r="F13" s="5"/>
@@ -1000,11 +931,11 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="C14" s="7"/>
       <c r="F14" s="5"/>
@@ -1012,11 +943,11 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="7"/>
       <c r="F15" s="5"/>
@@ -1024,35 +955,35 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="C16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="C18" s="7"/>
       <c r="F18" s="5"/>
@@ -1060,11 +991,11 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C19" s="7"/>
       <c r="F19" s="5"/>
@@ -1072,11 +1003,11 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="C20" s="7"/>
       <c r="F20" s="5"/>
@@ -1084,11 +1015,11 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="7"/>
       <c r="F21" s="5"/>
@@ -1096,11 +1027,11 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C22" s="7"/>
       <c r="F22" s="5"/>
@@ -1108,35 +1039,35 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="16"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>30</v>
+      <c r="A24" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>76</v>
+      <c r="A25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="F25" s="5"/>
@@ -1144,321 +1075,230 @@
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
       <c r="F26" s="5"/>
       <c r="G26" s="2"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="7"/>
       <c r="F27" s="5"/>
       <c r="G27" s="2"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="9"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="F30" s="5"/>
       <c r="G30" s="2"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="F41" s="5"/>
       <c r="G41" s="2"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="7"/>
       <c r="F42" s="5"/>
       <c r="G42" s="2"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="7"/>
+    <row r="43" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9"/>
       <c r="F43" s="5"/>
       <c r="G43" s="2"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="F44" s="5"/>
       <c r="G44" s="2"/>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="F47" s="5"/>
       <c r="G47" s="2"/>
       <c r="K47" s="5"/>
     </row>
+    <row r="48" spans="1:11" ht="17.25" thickBot="1">
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="3:3" ht="17.25" thickBot="1">
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="3:3" ht="17.25" thickBot="1">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="3:3" ht="18" thickTop="1" thickBot="1">
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="3:3" ht="17.25" thickBot="1">
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="3:3" ht="17.25" thickBot="1">
+      <c r="C53" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3463AE4E-4142-4C3B-9B3A-58381817EAF5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{31174C58-1B6C-40A6-95AB-AD6B770AD60D}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AC070609-01EC-4282-B2FE-093326681DD6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{672ABC1A-2063-47F1-959C-596F294C83A9}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{7C269586-1FF0-4A92-A62E-80E1DF7D6710}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7AFB697D-C1EC-4EDD-9BA3-892D9BA5D77E}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{D33D964D-5E38-441D-A8A4-83F17FC09772}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{52E7BF0E-448F-4EF1-B7EF-A652E2F916EE}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{2B818C2A-2BC1-4151-8999-F61E4AABAE55}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{3E3DC307-2E2A-405C-AFDE-1D46FB2FBC8E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{51BE6D11-5AB9-47CE-8CDE-B50B1812CBF1}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{E5DB7776-7C52-44BB-A1FC-5153C66703C0}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{DC1B054D-0AD2-45F1-97C4-37ECAA0DF131}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{CE351575-892F-478E-BD91-0EC2BC937149}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{A5664C8E-8D55-4D45-8C8A-20BDE6C5C622}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{50226C6C-0888-4276-B0DA-5575DAB96CC1}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{64122C48-E266-4A09-B41E-3E53A8468BAC}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{BB7873A9-4DB8-4CED-AC45-0DAB351B2C58}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{B6E56C8E-B6F4-472B-9F0A-E8C537EF8D09}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{81F029A1-CB4E-4274-AE0B-AA75D40B1F1D}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{1F789DFB-E885-43D3-98CD-6EDD9C0CDA06}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{79ED8E8C-5847-4515-AE03-0A67EEE4261F}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{44C0AAF8-22AB-4D06-834D-01C9C208EE2D}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{FD37EA56-89CE-4A63-AC12-9F91D4605C6A}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{457105F7-761C-4EAA-A1DA-967AED7F5461}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{FB14E73F-7E4A-4E9F-9313-A992C56C2ADE}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{731E5C89-4BF1-4C36-ABF4-BA38B3931312}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{C0D6BD63-CF7D-4594-8B1F-590EED261001}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{5858D693-C79C-4348-8735-BA468F3CD830}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{5E82C9E8-1CB3-413D-8C78-D1894BBBA069}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{6C4F4CC1-A271-47E7-B0CA-F0A7C3896749}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00BFA652-11FB-4716-AD41-0EE672A2F7A1}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{BA59AD25-59F1-41BD-9041-1134DE857A5A}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{3CA138BB-FC15-4498-8312-D508779DAE82}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{20B7C2B6-E12B-4573-A028-9BF20523D9A8}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{0A194325-7BB2-438A-8F49-DFB72C913C3F}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{34192DDA-E71E-41E3-9F79-89EDB859D0B3}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{B8681B9A-1345-4F9B-B0CA-54E23AACF2A0}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{5EBE78E7-503E-4FB7-920F-8F5103D922FE}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{5B9012C1-08AD-4748-87A1-991B59C26F73}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{59AF3F55-1943-40DD-ADAA-AB2F92841FAB}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{3C01450B-8071-453B-81AC-68355B423B43}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{E173B2BC-4CB4-49EB-B1E6-8A69FB94E9BA}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{FD9DFEEF-907D-4C38-A107-51B4C8B9E031}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{10570F10-2069-4340-83F9-F1C64C696703}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{FB94A8BE-D043-432B-BD9F-8517F98958E3}"/>
-    <hyperlink ref="Q1" r:id="rId47" xr:uid="{EE432C93-0DFB-4885-8F49-934A22306506}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{23D38145-EE90-4C29-88AB-823E5AC1FB28}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{46998B4B-4CA7-4C95-BDBA-62BDF89FDE3E}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{292FBAEF-C1B0-410D-BF46-4BF43F74F152}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{FF9E743B-7A8E-4288-A485-FC708CA53816}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{C02AD18C-8B79-4736-B1DB-840AB5D74F87}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{6D1D2B79-DFED-4647-A2D8-0DA1296C0836}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{01481817-226F-4D75-B339-77046E4D0A26}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{9ABC5586-125B-4307-A00A-8A8150DDACE6}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{B19C61C5-8F65-4980-9D51-8FB19FFB8A24}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{741D367C-4405-442F-B395-E76BD6D94058}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{CE3D4673-4448-4324-90B5-B25AF55D1C1A}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{73BAF393-BD71-43AE-92E6-805369078F92}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{8293F5FA-B689-4639-A074-CB1603857534}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{7703717D-2F8C-4BF6-8ECA-6F9590CD5D2A}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{F97BCC3D-7E42-431B-B33E-99994531E2C4}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{9EDEF866-74DC-4F4F-A666-87B414FA80B0}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{CFB256A4-A06B-486F-9D2A-C533F262A144}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{82942D39-109B-4F88-8AC7-BC23AD980755}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{970129F9-4A90-4116-BD66-06C16E75748B}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{2F12A6CF-5849-4841-ADF6-7C33D0CB6EFC}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{E0BDB486-BCD7-43A5-931D-1FB3A4E2EAF6}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{E9710107-8C1F-4ED2-86AF-F09F1F9308C0}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{BBA3BA9E-6C8B-45F0-908B-162F5B4FA0F7}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{8C564CF8-6652-460E-B6A4-48F21FDB8EFF}"/>
+    <hyperlink ref="Q1" r:id="rId25" xr:uid="{F0A261AA-0DAC-4254-AD89-3B57D04FFCEA}"/>
+    <hyperlink ref="Q4" r:id="rId26" xr:uid="{FEDA8501-85E9-47DD-911A-5847949CF699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\5.LMS줌링크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0FDAC3-8E18-49C7-A04F-06EF709A8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FDF241-1CB3-40CF-B666-98C945C6DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32010" yWindow="1470" windowWidth="29055" windowHeight="19410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3690" windowWidth="26055" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>admin ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,123 +70,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GM_MW_01</t>
-  </si>
-  <si>
-    <t>GM_MW_02</t>
-  </si>
-  <si>
-    <t>GM_MW_03</t>
-  </si>
-  <si>
-    <t>GM_MW_04</t>
-  </si>
-  <si>
-    <t>GM_MW_05</t>
-  </si>
-  <si>
-    <t>GM_MW_06</t>
-  </si>
-  <si>
-    <t>GM_MW_07</t>
-  </si>
-  <si>
-    <t>GM_MW_08</t>
-  </si>
-  <si>
-    <t>GM_MW_09</t>
-  </si>
-  <si>
-    <t>GM_MW_10</t>
-  </si>
-  <si>
-    <t>GM_MW_11</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/5448448250?pwd=M3lSU0F2am9EUWc0WWZlMG9vdjNWQT09&amp;omn=84362952806</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86216732745?pwd=jHKOUsRdFBMYJJhmdXTWaFBZMiYpaU.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84326384406?pwd=PDsY83woY4zVfz7L33RttwE6OZpoDW.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87300748246?pwd=jRbuZpaPfVNpWHmiuArB5ix8Dl82Mb.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83028332977?pwd=P4sNZgq0oery7qdQZwFdgRCXScpFsd.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86196879304?pwd=seaVbxv9gLpFZy7Ro7kQFuN7OGGba9.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84024077408?pwd=fNZK5GIklhQymIb7XvUNg4JteP6qrR.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82952858931?pwd=Xqv0u7mG7tvaYh23Zw1UE2DVglqaw7.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82682113467?pwd=iqmB7rZ8Qjj1tFwLMYTs1uxp1t2uvq.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87969718408?pwd=8VPwoze6vf8gWymKip8ctKku0tUW2M.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84391366905?pwd=h2E83CCsJjKJJKaVjPPDGRxF98RRMd.1</t>
-  </si>
-  <si>
-    <t>GM_TT_01</t>
-  </si>
-  <si>
-    <t>GM_TT_02</t>
-  </si>
-  <si>
-    <t>GM_TT_03</t>
-  </si>
-  <si>
-    <t>GM_TT_04</t>
-  </si>
-  <si>
-    <t>GM_TT_05</t>
-  </si>
-  <si>
-    <t>GM_TT_06</t>
-  </si>
-  <si>
-    <t>GM_TT_07</t>
-  </si>
-  <si>
-    <t>GM_TT_08</t>
-  </si>
-  <si>
-    <t>GM_TT_09</t>
-  </si>
-  <si>
-    <t>GM_TT_10</t>
-  </si>
-  <si>
-    <t>GM_TT_11</t>
-  </si>
-  <si>
-    <t>GM_TT_12</t>
-  </si>
-  <si>
-    <t>GM_TT_13</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83626899255?pwd=RAUmHXmYsIUJ9shAsrPRIrQHb6SxRQ.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/88264916666?pwd=xGm6hcb5LYt4QzCcaexbONzOzQZasj.1</t>
-  </si>
-  <si>
     <t>https://enozsw-gumi.enoz.kr/admin/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://enozsw-gumi.enoz.kr/Admin/Teacher/TeacherList.asp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://enozsw.enoz.kr/Admin/Teacher/TeacherList.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://enozsw-bukgu.enoz.kr/Admin/Teacher/TeacherList.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://enozsw-bukgu.enoz.kr/admin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://enozsw.enoz.kr/admin/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH_MW_01</t>
+  </si>
+  <si>
+    <t>PH_MW_02</t>
+  </si>
+  <si>
+    <t>PH_MW_03</t>
+  </si>
+  <si>
+    <t>PH_MW_04</t>
+  </si>
+  <si>
+    <t>PH_MW_05</t>
+  </si>
+  <si>
+    <t>PH_MW_06</t>
+  </si>
+  <si>
+    <t>PH_MW_07</t>
+  </si>
+  <si>
+    <t>PH_MW_08</t>
+  </si>
+  <si>
+    <t>PH_MW_09</t>
+  </si>
+  <si>
+    <t>PH_MW_10</t>
+  </si>
+  <si>
+    <t>PH_MW_11</t>
+  </si>
+  <si>
+    <t>PH_MW_12</t>
+  </si>
+  <si>
+    <t>PH_MW_13</t>
+  </si>
+  <si>
+    <t>PH_MW_14</t>
+  </si>
+  <si>
+    <t>PH_MW_15</t>
+  </si>
+  <si>
+    <t>PH_MW_16</t>
+  </si>
+  <si>
+    <t>PH_MW_17</t>
+  </si>
+  <si>
+    <t>PH_MW_18</t>
+  </si>
+  <si>
+    <t>PH_MW_19</t>
+  </si>
+  <si>
+    <t>PH_MW_20</t>
+  </si>
+  <si>
+    <t>PH_MW_21</t>
+  </si>
+  <si>
+    <t>PH_MW_22</t>
+  </si>
+  <si>
+    <t>PH_MW_23</t>
+  </si>
+  <si>
+    <t>PH_MW_24</t>
+  </si>
+  <si>
+    <t>PH_MW_25</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87342936339?pwd=j5lJ696Wq4Q7PAscYfMaNFf5CBjaaB.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83351171396?pwd=4szivKLkBWL6hV9CU3ssBmYb9HePyF.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86756956757?pwd=XUxYcrH5dKKcf9gm4w3Urotj8U7pME.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82880573740?pwd=UkzQSyzicU40weW1bwZWJQfdZMa96w.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/88507102943?pwd=2tzmvxScNF6MJdyQAG3eAFe8QLvXSc.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83190957615?pwd=UTAqtqFMwyontADOcBdefmW9og0JkU.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83102172459?pwd=42gLqycPbOrBbGRnZDJ4HbbinvExB1.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81897751774?pwd=xTpG5iya3V4hVlmq1JuVLz71CmQ3QP.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/85659071763?pwd=oQEvn0PZSbauCZbDbL9ohzoUFvROYM.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84861513697?pwd=rcaFnPbybhatFQGPTmPgbEOCSVV68G.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87073898364?pwd=HErAVK9SjhDXrXmWMwkK2cXwOSasDN.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81981428857?pwd=C0pVp5klexQmQiXo8lx8clHX68sOR5.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83059829359?pwd=UJKTWREebBz7QRPpFtOfBoaGfb3r6C.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82884109772?pwd=MXm4wX1ewWFiqgFnu6bW9cLQkMEQ74.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83659189857?pwd=40uasQmkbufOcLVkXbV0F788bZr2Kj.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84530014341?pwd=amrU83GrjtzYI9HbfjgFaXFAlsZTKz.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84472622775?pwd=jaOvmFZ7PX7xvHvaxnar1MapxFooXy.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/87015890570?pwd=07AICnsosHgbnVlFaE4pnlaXAPHiGZ.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82760048295?pwd=PvXiMjdtWGT73CzV0fUWb50nQQtJec.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89737385695?pwd=Kqm8YDunVXFFiRuYZazEdAq8BAtwmN.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/85798481182?pwd=YJWA3u3i0i6Matw1ZREVu4ycQos5Uy.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81264530818?pwd=Au6SKcVPhbuha6HWPYVfbhPVhKwpYY.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89931577228?pwd=YbkTfeQMuoGa7XKqdKOaCIrcohCzwu.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82927418982?pwd=OmsDie3tb6x6FqaqENB6BRKW4yj1nZ.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89786254264?pwd=0a1q4FGOmGnUIXAiQVyao4ox2n2V72.1</t>
+  </si>
+  <si>
+    <t>PH_TT_01</t>
+  </si>
+  <si>
+    <t>PH_TT_02</t>
+  </si>
+  <si>
+    <t>PH_TT_03</t>
+  </si>
+  <si>
+    <t>PH_TT_04</t>
+  </si>
+  <si>
+    <t>PH_TT_05</t>
+  </si>
+  <si>
+    <t>PH_TT_06</t>
+  </si>
+  <si>
+    <t>PH_TT_07</t>
+  </si>
+  <si>
+    <t>PH_TT_08</t>
+  </si>
+  <si>
+    <t>PH_TT_09</t>
+  </si>
+  <si>
+    <t>PH_TT_10</t>
+  </si>
+  <si>
+    <t>PH_TT_11</t>
+  </si>
+  <si>
+    <t>PH_TT_12</t>
+  </si>
+  <si>
+    <t>PH_TT_13</t>
+  </si>
+  <si>
+    <t>PH_TT_14</t>
+  </si>
+  <si>
+    <t>PH_TT_15</t>
+  </si>
+  <si>
+    <t>PH_TT_16</t>
+  </si>
+  <si>
+    <t>PH_TT_17</t>
+  </si>
+  <si>
+    <t>PH_TT_18</t>
+  </si>
+  <si>
+    <t>PH_TT_19</t>
+  </si>
+  <si>
+    <t>PH_TT_20</t>
+  </si>
+  <si>
+    <t>PH_TT_21</t>
+  </si>
+  <si>
+    <t>PH_TT_22</t>
+  </si>
+  <si>
+    <t>PH_TT_23</t>
   </si>
 </sst>
 </file>
@@ -365,9 +501,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,6 +540,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -727,7 +863,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -738,7 +874,7 @@
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="2" hidden="1" customWidth="1"/>
@@ -755,550 +891,657 @@
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="5"/>
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="P4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="C5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="Q8" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="K9" s="4"/>
+      <c r="P9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="Q10" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="K2" s="5"/>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="Q12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-      <c r="K3" s="5"/>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-      <c r="K4" s="5"/>
-      <c r="P4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="K5" s="5"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="K6" s="5"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="17.25" thickBot="1">
       <c r="A13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="F13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1">
       <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="F14" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="2"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="F16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" thickBot="1">
       <c r="A18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="F18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="2"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="2"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="F20" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="2"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="2"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
       <c r="A22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="F22" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="2"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="2"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1">
       <c r="A24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="C28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" thickTop="1" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="2"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="2"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="7"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="2"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="2"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7"/>
-      <c r="F33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="7"/>
-      <c r="F34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="2"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="2"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
-      <c r="F36" s="5"/>
+      <c r="A36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="2"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="2"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="F38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="2"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="2"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="7"/>
-      <c r="F40" s="5"/>
+      <c r="A40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="2"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7"/>
-      <c r="F41" s="5"/>
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="2"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7"/>
-      <c r="F42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="2"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="2"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="7"/>
-      <c r="F44" s="5"/>
+      <c r="A44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="2"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="7"/>
-      <c r="F45" s="5"/>
+      <c r="A45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="2"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="7"/>
-      <c r="F46" s="5"/>
+      <c r="A46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="2"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="7"/>
-      <c r="F47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="2"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" thickBot="1">
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="3:3" ht="17.25" thickBot="1">
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="3:3" ht="17.25" thickBot="1">
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="3:3" ht="18" thickTop="1" thickBot="1">
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="3:3" ht="17.25" thickBot="1">
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="3:3" ht="17.25" thickBot="1">
-      <c r="C53" s="7"/>
+      <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" thickBot="1">
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="18" thickTop="1" thickBot="1">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" thickBot="1">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" thickBot="1">
+      <c r="C53" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{23D38145-EE90-4C29-88AB-823E5AC1FB28}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{46998B4B-4CA7-4C95-BDBA-62BDF89FDE3E}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{292FBAEF-C1B0-410D-BF46-4BF43F74F152}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{FF9E743B-7A8E-4288-A485-FC708CA53816}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{C02AD18C-8B79-4736-B1DB-840AB5D74F87}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{6D1D2B79-DFED-4647-A2D8-0DA1296C0836}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01481817-226F-4D75-B339-77046E4D0A26}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{9ABC5586-125B-4307-A00A-8A8150DDACE6}"/>
-    <hyperlink ref="B4" r:id="rId9" xr:uid="{B19C61C5-8F65-4980-9D51-8FB19FFB8A24}"/>
-    <hyperlink ref="B3" r:id="rId10" xr:uid="{741D367C-4405-442F-B395-E76BD6D94058}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{CE3D4673-4448-4324-90B5-B25AF55D1C1A}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{73BAF393-BD71-43AE-92E6-805369078F92}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{8293F5FA-B689-4639-A074-CB1603857534}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{7703717D-2F8C-4BF6-8ECA-6F9590CD5D2A}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{F97BCC3D-7E42-431B-B33E-99994531E2C4}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{9EDEF866-74DC-4F4F-A666-87B414FA80B0}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{CFB256A4-A06B-486F-9D2A-C533F262A144}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{82942D39-109B-4F88-8AC7-BC23AD980755}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{970129F9-4A90-4116-BD66-06C16E75748B}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{2F12A6CF-5849-4841-ADF6-7C33D0CB6EFC}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{E0BDB486-BCD7-43A5-931D-1FB3A4E2EAF6}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{E9710107-8C1F-4ED2-86AF-F09F1F9308C0}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{BBA3BA9E-6C8B-45F0-908B-162F5B4FA0F7}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{8C564CF8-6652-460E-B6A4-48F21FDB8EFF}"/>
-    <hyperlink ref="Q1" r:id="rId25" xr:uid="{F0A261AA-0DAC-4254-AD89-3B57D04FFCEA}"/>
-    <hyperlink ref="Q4" r:id="rId26" xr:uid="{FEDA8501-85E9-47DD-911A-5847949CF699}"/>
+    <hyperlink ref="Q11" r:id="rId1" xr:uid="{F2A7AEFA-0A9D-4E62-9B56-23C5471E41EA}"/>
+    <hyperlink ref="Q12" r:id="rId2" xr:uid="{89C02FA0-7825-47D3-A436-BFC9A9FA2DBA}"/>
+    <hyperlink ref="Q8" r:id="rId3" xr:uid="{3477DE43-A923-49D1-9667-8086CCC36BC6}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{045248DF-4C4F-47FD-80F3-BD1D5FEF4441}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{B810DE77-7A3B-465F-B768-9300AA75E360}"/>
+    <hyperlink ref="Q7" r:id="rId6" xr:uid="{2F15D1DC-4C2D-4B8F-9E46-EA9A5702A39B}"/>
+    <hyperlink ref="Q2" r:id="rId7" xr:uid="{EB934EA5-CE91-4900-AD46-781FF1EB980C}"/>
+    <hyperlink ref="Q1" r:id="rId8" xr:uid="{CC1F3FA6-04F5-4CB7-9EC8-75DED56BF906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/5.LMS줌링크/LMS줌링크.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\5.LMS줌링크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FDF241-1CB3-40CF-B666-98C945C6DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E980052-C1BA-4800-830F-6EEDD1F6B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3690" windowWidth="26055" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45990" yWindow="2190" windowWidth="28305" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>admin ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,223 +106,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PH_MW_01</t>
-  </si>
-  <si>
-    <t>PH_MW_02</t>
-  </si>
-  <si>
-    <t>PH_MW_03</t>
-  </si>
-  <si>
-    <t>PH_MW_04</t>
-  </si>
-  <si>
-    <t>PH_MW_05</t>
-  </si>
-  <si>
-    <t>PH_MW_06</t>
-  </si>
-  <si>
-    <t>PH_MW_07</t>
-  </si>
-  <si>
-    <t>PH_MW_08</t>
-  </si>
-  <si>
-    <t>PH_MW_09</t>
-  </si>
-  <si>
-    <t>PH_MW_10</t>
-  </si>
-  <si>
-    <t>PH_MW_11</t>
-  </si>
-  <si>
-    <t>PH_MW_12</t>
-  </si>
-  <si>
-    <t>PH_MW_13</t>
-  </si>
-  <si>
-    <t>PH_MW_14</t>
-  </si>
-  <si>
-    <t>PH_MW_15</t>
-  </si>
-  <si>
-    <t>PH_MW_16</t>
-  </si>
-  <si>
-    <t>PH_MW_17</t>
-  </si>
-  <si>
-    <t>PH_MW_18</t>
-  </si>
-  <si>
-    <t>PH_MW_19</t>
-  </si>
-  <si>
-    <t>PH_MW_20</t>
-  </si>
-  <si>
-    <t>PH_MW_21</t>
-  </si>
-  <si>
-    <t>PH_MW_22</t>
-  </si>
-  <si>
-    <t>PH_MW_23</t>
-  </si>
-  <si>
-    <t>PH_MW_24</t>
-  </si>
-  <si>
-    <t>PH_MW_25</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87342936339?pwd=j5lJ696Wq4Q7PAscYfMaNFf5CBjaaB.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83351171396?pwd=4szivKLkBWL6hV9CU3ssBmYb9HePyF.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/86756956757?pwd=XUxYcrH5dKKcf9gm4w3Urotj8U7pME.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82880573740?pwd=UkzQSyzicU40weW1bwZWJQfdZMa96w.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/88507102943?pwd=2tzmvxScNF6MJdyQAG3eAFe8QLvXSc.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83190957615?pwd=UTAqtqFMwyontADOcBdefmW9og0JkU.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83102172459?pwd=42gLqycPbOrBbGRnZDJ4HbbinvExB1.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/81897751774?pwd=xTpG5iya3V4hVlmq1JuVLz71CmQ3QP.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/85659071763?pwd=oQEvn0PZSbauCZbDbL9ohzoUFvROYM.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84861513697?pwd=rcaFnPbybhatFQGPTmPgbEOCSVV68G.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87073898364?pwd=HErAVK9SjhDXrXmWMwkK2cXwOSasDN.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/81981428857?pwd=C0pVp5klexQmQiXo8lx8clHX68sOR5.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83059829359?pwd=UJKTWREebBz7QRPpFtOfBoaGfb3r6C.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82884109772?pwd=MXm4wX1ewWFiqgFnu6bW9cLQkMEQ74.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/83659189857?pwd=40uasQmkbufOcLVkXbV0F788bZr2Kj.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84530014341?pwd=amrU83GrjtzYI9HbfjgFaXFAlsZTKz.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/84472622775?pwd=jaOvmFZ7PX7xvHvaxnar1MapxFooXy.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/87015890570?pwd=07AICnsosHgbnVlFaE4pnlaXAPHiGZ.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82760048295?pwd=PvXiMjdtWGT73CzV0fUWb50nQQtJec.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/89737385695?pwd=Kqm8YDunVXFFiRuYZazEdAq8BAtwmN.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/85798481182?pwd=YJWA3u3i0i6Matw1ZREVu4ycQos5Uy.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/81264530818?pwd=Au6SKcVPhbuha6HWPYVfbhPVhKwpYY.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/89931577228?pwd=YbkTfeQMuoGa7XKqdKOaCIrcohCzwu.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/82927418982?pwd=OmsDie3tb6x6FqaqENB6BRKW4yj1nZ.1</t>
-  </si>
-  <si>
-    <t>https://us02web.zoom.us/j/89786254264?pwd=0a1q4FGOmGnUIXAiQVyao4ox2n2V72.1</t>
-  </si>
-  <si>
-    <t>PH_TT_01</t>
-  </si>
-  <si>
-    <t>PH_TT_02</t>
-  </si>
-  <si>
-    <t>PH_TT_03</t>
-  </si>
-  <si>
-    <t>PH_TT_04</t>
-  </si>
-  <si>
-    <t>PH_TT_05</t>
-  </si>
-  <si>
-    <t>PH_TT_06</t>
-  </si>
-  <si>
-    <t>PH_TT_07</t>
-  </si>
-  <si>
-    <t>PH_TT_08</t>
-  </si>
-  <si>
-    <t>PH_TT_09</t>
-  </si>
-  <si>
-    <t>PH_TT_10</t>
-  </si>
-  <si>
-    <t>PH_TT_11</t>
-  </si>
-  <si>
-    <t>PH_TT_12</t>
-  </si>
-  <si>
-    <t>PH_TT_13</t>
-  </si>
-  <si>
-    <t>PH_TT_14</t>
-  </si>
-  <si>
-    <t>PH_TT_15</t>
-  </si>
-  <si>
-    <t>PH_TT_16</t>
-  </si>
-  <si>
-    <t>PH_TT_17</t>
-  </si>
-  <si>
-    <t>PH_TT_18</t>
-  </si>
-  <si>
-    <t>PH_TT_19</t>
-  </si>
-  <si>
-    <t>PH_TT_20</t>
-  </si>
-  <si>
-    <t>PH_TT_21</t>
-  </si>
-  <si>
-    <t>PH_TT_22</t>
-  </si>
-  <si>
-    <t>PH_TT_23</t>
+    <t>BG_MW_01</t>
+  </si>
+  <si>
+    <t>BG_MW_02</t>
+  </si>
+  <si>
+    <t>BG_MW_03</t>
+  </si>
+  <si>
+    <t>BG_MW_04</t>
+  </si>
+  <si>
+    <t>BG_MW_05</t>
+  </si>
+  <si>
+    <t>BG_MW_06</t>
+  </si>
+  <si>
+    <t>BG_MW_07</t>
+  </si>
+  <si>
+    <t>BG_MW_08</t>
+  </si>
+  <si>
+    <t>BG_MW_09</t>
+  </si>
+  <si>
+    <t>BG_MW_10</t>
+  </si>
+  <si>
+    <t>BG_MW_11</t>
+  </si>
+  <si>
+    <t>BG_MW_12</t>
+  </si>
+  <si>
+    <t>BG_MW_13</t>
+  </si>
+  <si>
+    <t>BG_MW_14</t>
+  </si>
+  <si>
+    <t>BG_MW_15</t>
+  </si>
+  <si>
+    <t>BG_MW_16</t>
+  </si>
+  <si>
+    <t>BG_MW_17</t>
+  </si>
+  <si>
+    <t>BG_MW_18</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83854664632?pwd=QV8BEwYo6P8pha6cCaIvmMLhrN7RXa.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82439279836?pwd=btQpNqXSwkKuMAzf0oC917vFHSUYFJ.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82963803147?pwd=38RktIafA4foy38Rtc2CdKvFiuo2Dj.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83375912206?pwd=K0kSIVjw9SnD7UYMhsKSLa0mJroB6d.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/83657838236?pwd=0VjqAF87qLqlL6loM4C9Ti3Tv26d8J.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86548325560?pwd=kt26K8MfybniREMdIYBXId1F26j0lM.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84992364309?pwd=ZUEVvCqatVGD6yy35EcitwhS2eBoLb.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84390877253?pwd=O2Bi2MYKRLj4eQioH54qprvJwoJYj1.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86984890925?pwd=ieR4QDBkSbQh9eK94lAmqzqbeacXWL.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84762814721?pwd=dOKX7lkCHI6i5bjQytvfip1GWhKF2i.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81189595257?pwd=pD4fY7PjhT3QKh6UEiEUPnXKdMVhdy.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86048581601?pwd=wmWTot6vaDzYJzxqs4ezBTmxOSPpjZ.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81314117731?pwd=j6Opwdm2GEbz2c2y3YoIxgSOvGyIIT.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/84278187289?pwd=hM6onMvOdpxn3nI2a5QXOCHx0xslhH.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/86171472596?pwd=YwZ0BDayWfgHLuXrpV6PWmFvit7DaV.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/81340115605?pwd=yDtoKK83qDUwkcPsSuSlsG7FIJTHbk.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/89120474985?pwd=Mso8yXiWq8mmpEzWqUfiehzXKGDg4g.1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/82285886710?pwd=BuP3E7DWe9y6Xp33BkCZGfbfqVQbtb.1</t>
+  </si>
+  <si>
+    <t>BG_TT_01</t>
+  </si>
+  <si>
+    <t>BG_TT_02</t>
+  </si>
+  <si>
+    <t>BG_TT_03</t>
+  </si>
+  <si>
+    <t>BG_TT_04</t>
+  </si>
+  <si>
+    <t>BG_TT_05</t>
+  </si>
+  <si>
+    <t>BG_TT_06</t>
+  </si>
+  <si>
+    <t>BG_TT_07</t>
+  </si>
+  <si>
+    <t>BG_TT_08</t>
+  </si>
+  <si>
+    <t>BG_TT_09</t>
+  </si>
+  <si>
+    <t>BG_TT_10</t>
+  </si>
+  <si>
+    <t>BG_TT_11</t>
+  </si>
+  <si>
+    <t>BG_TT_12</t>
+  </si>
+  <si>
+    <t>BG_TT_13</t>
+  </si>
+  <si>
+    <t>BG_TT_14</t>
+  </si>
+  <si>
+    <t>BG_TT_15</t>
+  </si>
+  <si>
+    <t>BG_TT_16</t>
+  </si>
+  <si>
+    <t>BG_TT_17</t>
+  </si>
+  <si>
+    <t>BG_TT_18</t>
   </si>
 </sst>
 </file>
@@ -516,12 +459,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,12 +474,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -863,13 +808,13 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="2" customWidth="1"/>
+    <col min="2" max="2" width="93" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
@@ -898,16 +843,16 @@
       <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="18" t="s">
-        <v>16</v>
+      <c r="Q1" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>42</v>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="8"/>
       <c r="F2" s="4"/>
@@ -916,16 +861,16 @@
       <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>13</v>
+      <c r="Q2" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>43</v>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="F3" s="4"/>
@@ -939,11 +884,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="4"/>
@@ -957,11 +902,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="6"/>
       <c r="F5" s="4"/>
@@ -969,11 +914,11 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6"/>
       <c r="F6" s="4"/>
@@ -981,11 +926,11 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
+      <c r="B7" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="6"/>
       <c r="F7" s="4"/>
@@ -994,31 +939,31 @@
       <c r="P7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="K8" s="4"/>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="7"/>
       <c r="F9" s="4"/>
@@ -1027,31 +972,31 @@
       <c r="P9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="K10" s="4"/>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>51</v>
+      <c r="B11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="6"/>
       <c r="F11" s="4"/>
@@ -1065,11 +1010,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6"/>
       <c r="F12" s="4"/>
@@ -1080,11 +1025,11 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6"/>
       <c r="F13" s="4"/>
@@ -1092,11 +1037,11 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>54</v>
+      <c r="B14" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="6"/>
       <c r="F14" s="4"/>
@@ -1104,11 +1049,11 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>55</v>
+      <c r="B15" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="6"/>
       <c r="F15" s="4"/>
@@ -1116,11 +1061,11 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>56</v>
+      <c r="B16" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="6"/>
       <c r="F16" s="4"/>
@@ -1128,11 +1073,11 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>57</v>
+      <c r="B17" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="8"/>
       <c r="F17" s="4"/>
@@ -1140,11 +1085,11 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>58</v>
+      <c r="B18" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="6"/>
       <c r="F18" s="4"/>
@@ -1152,11 +1097,11 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>59</v>
+      <c r="B19" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="6"/>
       <c r="F19" s="4"/>
@@ -1164,11 +1109,11 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
@@ -1176,11 +1121,11 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C21" s="6"/>
       <c r="F21" s="4"/>
@@ -1188,11 +1133,11 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="6"/>
       <c r="F22" s="4"/>
@@ -1200,23 +1145,23 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="13"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C24" s="7"/>
       <c r="F24" s="4"/>
@@ -1224,11 +1169,11 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="C25" s="6"/>
       <c r="F25" s="4"/>
@@ -1236,11 +1181,11 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="C26" s="6"/>
       <c r="F26" s="4"/>
@@ -1248,10 +1193,10 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="6"/>
@@ -1260,10 +1205,10 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="6"/>
@@ -1272,10 +1217,10 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="8"/>
@@ -1284,10 +1229,10 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="6"/>
@@ -1296,10 +1241,10 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="6"/>
@@ -1308,10 +1253,10 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="6"/>
@@ -1320,10 +1265,10 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="6"/>
@@ -1332,10 +1277,10 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="6"/>
@@ -1344,10 +1289,10 @@
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="6"/>
@@ -1356,10 +1301,10 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="7"/>
@@ -1368,10 +1313,10 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="6"/>
@@ -1380,168 +1325,152 @@
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="6"/>
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="2"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="A43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="F43" s="4"/>
       <c r="G43" s="2"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="6"/>
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>64</v>
-      </c>
+    <row r="49" spans="3:3" ht="17.25" thickBot="1">
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1">
+    <row r="50" spans="3:3" ht="17.25" thickBot="1">
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" ht="18" thickTop="1" thickBot="1">
+    <row r="51" spans="3:3" ht="18" thickTop="1" thickBot="1">
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="17.25" thickBot="1">
+    <row r="52" spans="3:3" ht="17.25" thickBot="1">
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" ht="17.25" thickBot="1">
+    <row r="53" spans="3:3" ht="17.25" thickBot="1">
       <c r="C53" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q11" r:id="rId1" xr:uid="{F2A7AEFA-0A9D-4E62-9B56-23C5471E41EA}"/>
-    <hyperlink ref="Q12" r:id="rId2" xr:uid="{89C02FA0-7825-47D3-A436-BFC9A9FA2DBA}"/>
-    <hyperlink ref="Q8" r:id="rId3" xr:uid="{3477DE43-A923-49D1-9667-8086CCC36BC6}"/>
-    <hyperlink ref="Q10" r:id="rId4" xr:uid="{045248DF-4C4F-47FD-80F3-BD1D5FEF4441}"/>
-    <hyperlink ref="Q9" r:id="rId5" xr:uid="{B810DE77-7A3B-465F-B768-9300AA75E360}"/>
-    <hyperlink ref="Q7" r:id="rId6" xr:uid="{2F15D1DC-4C2D-4B8F-9E46-EA9A5702A39B}"/>
-    <hyperlink ref="Q2" r:id="rId7" xr:uid="{EB934EA5-CE91-4900-AD46-781FF1EB980C}"/>
-    <hyperlink ref="Q1" r:id="rId8" xr:uid="{CC1F3FA6-04F5-4CB7-9EC8-75DED56BF906}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{1A1EF154-7615-4B9B-8BF1-E019278FB8F1}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{62544557-1665-49C0-B7EA-4C4B902683C0}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{C3AC6FDA-4F75-47EE-97E0-6A876700C541}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{65090046-46EC-4DCD-A9B6-FD12C70F7DB2}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{FB4C4052-4050-4B61-90BC-50B3E9FA2749}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{D41255C0-8D37-481B-9D38-3D7FD5C43FA1}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{880E55CE-B42B-4618-B226-4B022417F8D2}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{AFF8DFF2-3F0B-44E6-A1BC-0BD3AB9BED0F}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{CADA6FD9-8FED-4C6F-9D8D-B02DF8D17C21}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{225D2A44-FEAB-4939-9221-4CBB4F11C5B0}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{C5B5998A-A5B3-4240-B872-450E689396E8}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{70B13C22-DBFA-438D-AAD1-85318E2C5E2A}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{F5B8F013-9026-444D-91D6-10F7995147FD}"/>
+    <hyperlink ref="B6" r:id="rId14" xr:uid="{39DFA172-A294-442E-8F79-7F3BA90991F2}"/>
+    <hyperlink ref="B5" r:id="rId15" xr:uid="{D217F8E2-2E70-4351-87F7-F06220B6F136}"/>
+    <hyperlink ref="B4" r:id="rId16" xr:uid="{8983A0F9-278C-41D2-9219-E63FD74F2638}"/>
+    <hyperlink ref="B3" r:id="rId17" xr:uid="{7CC9E3FA-E621-4D5D-B83F-1F1D87BA719D}"/>
+    <hyperlink ref="B2" r:id="rId18" xr:uid="{EA7E7F47-D62B-4B8B-9551-5BB0188E7B95}"/>
+    <hyperlink ref="Q1" r:id="rId19" xr:uid="{FE21F267-E533-4861-88D0-C07536AB6D58}"/>
+    <hyperlink ref="Q2" r:id="rId20" xr:uid="{9FFE7ACE-1824-4C57-9BE1-CD3455AEF567}"/>
+    <hyperlink ref="Q7" r:id="rId21" xr:uid="{2F15D1DC-4C2D-4B8F-9E46-EA9A5702A39B}"/>
+    <hyperlink ref="Q9" r:id="rId22" xr:uid="{B810DE77-7A3B-465F-B768-9300AA75E360}"/>
+    <hyperlink ref="Q10" r:id="rId23" xr:uid="{045248DF-4C4F-47FD-80F3-BD1D5FEF4441}"/>
+    <hyperlink ref="Q8" r:id="rId24" xr:uid="{3477DE43-A923-49D1-9667-8086CCC36BC6}"/>
+    <hyperlink ref="Q12" r:id="rId25" xr:uid="{89C02FA0-7825-47D3-A436-BFC9A9FA2DBA}"/>
+    <hyperlink ref="Q11" r:id="rId26" xr:uid="{F2A7AEFA-0A9D-4E62-9B56-23C5471E41EA}"/>
+    <hyperlink ref="B20" r:id="rId27" xr:uid="{AAB31586-67FF-4A1A-8B24-6971B0875FF0}"/>
+    <hyperlink ref="B21" r:id="rId28" xr:uid="{245C8C72-9CD2-42F9-B15E-8FF37BDA01B6}"/>
+    <hyperlink ref="B22" r:id="rId29" xr:uid="{F9B54AAB-E4E2-4C14-9292-E77F1E0EA95A}"/>
+    <hyperlink ref="B23" r:id="rId30" xr:uid="{966FE1FF-D0EA-4D50-AE38-98476C99AF79}"/>
+    <hyperlink ref="B24" r:id="rId31" xr:uid="{094FA704-F4B6-4272-A4C3-FC5D7A81BBA1}"/>
+    <hyperlink ref="B25" r:id="rId32" xr:uid="{0606FED5-6680-4DA8-A04B-9FFB4A6E7009}"/>
+    <hyperlink ref="B26" r:id="rId33" xr:uid="{5B19F209-DE22-4AA7-8E58-EE272122F7A7}"/>
+    <hyperlink ref="B27" r:id="rId34" xr:uid="{1C07A0B9-B94E-49E5-93C7-D77B2B725E16}"/>
+    <hyperlink ref="B28" r:id="rId35" xr:uid="{607CAB4B-F3B1-466F-A990-7DF84473FD21}"/>
+    <hyperlink ref="B29" r:id="rId36" xr:uid="{750A67E2-B8C6-4C98-9FC3-44071FBBCFEA}"/>
+    <hyperlink ref="B30" r:id="rId37" xr:uid="{4B1D28EF-75EE-4A3A-B86F-C14AE4C13CE7}"/>
+    <hyperlink ref="B31" r:id="rId38" xr:uid="{2940A6DC-6D05-4A97-A0CA-1A59BFC57DF7}"/>
+    <hyperlink ref="B32" r:id="rId39" xr:uid="{EA52C76E-F8EE-437B-A764-12ED37E86D88}"/>
+    <hyperlink ref="B33" r:id="rId40" xr:uid="{7DF584ED-8439-440F-8200-65FDD97DC912}"/>
+    <hyperlink ref="B34" r:id="rId41" xr:uid="{B388AFA1-7E75-4C52-8736-66E2370FFD4D}"/>
+    <hyperlink ref="B35" r:id="rId42" xr:uid="{2A930D2F-0C5D-49AA-96EB-114EFC8F1308}"/>
+    <hyperlink ref="B36" r:id="rId43" xr:uid="{B63C8F7B-094B-4DD5-B168-338A32CCF4D2}"/>
+    <hyperlink ref="B37" r:id="rId44" xr:uid="{291D221B-5D9E-4A02-933C-BBD8C9E7B480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>